--- a/target/test-classes/testdata/batch12ExcelFile.xlsx
+++ b/target/test-classes/testdata/batch12ExcelFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrd13\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrd13\IdeaProjects\CucumberFrameworkBatch12\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9530C0CA-F43B-477D-9CCB-C12C2F38A15C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C1E26-D126-422D-914B-F5BC48C8D19D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{1277500B-D0D3-439F-9345-09681D18345A}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>C:\Users\mrd13\Downloads</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>C:\Users\mrd13\Downloads/batch12.img</t>
   </si>
@@ -397,7 +394,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,24 +404,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
